--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>58570829</t>
+  </si>
+  <si>
+    <t>02-12-2022</t>
+  </si>
+  <si>
+    <t>58571703</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +515,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -705,6 +751,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -713,7 +787,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -746,7 +820,11 @@
     <xf applyBorder="true" applyFill="true" borderId="41" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="43" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="45" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="47" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="55" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1235,8 +1313,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>66</v>
+      <c r="A2" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1250,7 +1328,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="34" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1268,8 +1346,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>67</v>
+      <c r="L2" s="33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qualitesoft\testdata\FCfiles\stg\Overages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\stg\Overages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C7B7B9B9-1520-455F-A868-8CD3A3E314F1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85979B-6D96-4D6F-A8D8-41C77EEB58E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Validations" r:id="rId1" sheetId="2" state="hidden"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="3"/>
-    <sheet name="EditSecondaryInvoice" r:id="rId3" sheetId="4"/>
-    <sheet name="EditOverageDetails" r:id="rId4" sheetId="5"/>
+    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="EditSecondaryInvoice" sheetId="4" r:id="rId3"/>
+    <sheet name="EditOverageDetails" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Customer submitted all the details.</t>
   </si>
   <si>
-    <t>test20may21@mailinator.com</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -198,53 +195,22 @@
     <t>info@freightclub.com</t>
   </si>
   <si>
-    <t>01-30-2022</t>
-  </si>
-  <si>
-    <t>58569832</t>
-  </si>
-  <si>
     <t>Test Automation</t>
   </si>
   <si>
-    <t>58569833</t>
-  </si>
-  <si>
-    <t>58569834</t>
-  </si>
-  <si>
-    <t>58569835</t>
-  </si>
-  <si>
-    <t>01-31-2022</t>
-  </si>
-  <si>
-    <t>58569857</t>
-  </si>
-  <si>
-    <t>02-03-2022</t>
-  </si>
-  <si>
-    <t>58570619</t>
-  </si>
-  <si>
-    <t>02-07-2022</t>
-  </si>
-  <si>
-    <t>58570829</t>
-  </si>
-  <si>
-    <t>02-12-2022</t>
-  </si>
-  <si>
-    <t>58571703</t>
+    <t>02-15-2022</t>
+  </si>
+  <si>
+    <t>58572102</t>
+  </si>
+  <si>
+    <t>qashprod16sep21@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,7 +234,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,268 +261,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="56">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -597,241 +303,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="11" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="15" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="17" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="19" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="21" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="23" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="25" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="27" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="29" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="31" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="33" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="35" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="37" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="41" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="43" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="45" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="47" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="49" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="51" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="53" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="55" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -916,10 +414,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1083,21 +581,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1114,7 +612,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1166,83 +664,83 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -1251,32 +749,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.3046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1312,24 +810,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>68</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -1346,32 +844,32 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="33" t="s">
-        <v>69</v>
+      <c r="L2" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1382,48 +880,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="29.109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1464,7 +962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1481,7 +979,7 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -1492,8 +990,8 @@
       <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
-        <v>50</v>
+      <c r="J2" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="K2" t="s">
         <v>42</v>
@@ -1507,9 +1005,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{7F26AE58-39FF-430D-86E4-FA69E1224FC9}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\stg\Overages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85979B-6D96-4D6F-A8D8-41C77EEB58E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8F85979B-6D96-4D6F-A8D8-41C77EEB58E4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="1" tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="EditSecondaryInvoice" sheetId="4" r:id="rId3"/>
-    <sheet name="EditOverageDetails" sheetId="5" r:id="rId4"/>
+    <sheet name="Validations" r:id="rId1" sheetId="2" state="hidden"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="3"/>
+    <sheet name="EditSecondaryInvoice" r:id="rId3" sheetId="4"/>
+    <sheet name="EditOverageDetails" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -205,12 +205,46 @@
   </si>
   <si>
     <t>qashprod16sep21@mailinator.com</t>
+  </si>
+  <si>
+    <t>05-12-2022</t>
+  </si>
+  <si>
+    <t>59069890</t>
+  </si>
+  <si>
+    <t>59069894</t>
+  </si>
+  <si>
+    <t>59069895</t>
+  </si>
+  <si>
+    <t>59069896</t>
+  </si>
+  <si>
+    <t>59069900</t>
+  </si>
+  <si>
+    <t>59069901</t>
+  </si>
+  <si>
+    <t>05-13-2022</t>
+  </si>
+  <si>
+    <t>59069932</t>
+  </si>
+  <si>
+    <t>59069938</t>
+  </si>
+  <si>
+    <t>59069939</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +268,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +295,278 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -303,33 +607,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="36">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="11" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="43" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="55" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="57" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -414,10 +934,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -581,21 +1101,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -612,7 +1132,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -664,15 +1184,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -680,10 +1200,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="14.25" r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -739,8 +1259,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
@@ -749,8 +1269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -758,18 +1278,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.3046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,8 +1331,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>56</v>
+      <c r="A2" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -826,7 +1346,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="34" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -844,19 +1364,19 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>57</v>
+      <c r="L2" s="35" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -864,9 +1384,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,13 +1412,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -906,19 +1426,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1005,10 +1525,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{7F26AE58-39FF-430D-86E4-FA69E1224FC9}"/>
+    <hyperlink r:id="rId1" ref="L2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="J2" xr:uid="{7F26AE58-39FF-430D-86E4-FA69E1224FC9}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -238,6 +238,21 @@
   </si>
   <si>
     <t>59069939</t>
+  </si>
+  <si>
+    <t>05-18-2022</t>
+  </si>
+  <si>
+    <t>59070314</t>
+  </si>
+  <si>
+    <t>59070315</t>
+  </si>
+  <si>
+    <t>59070320</t>
+  </si>
+  <si>
+    <t>59070322</t>
   </si>
 </sst>
 </file>
@@ -268,7 +283,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="60">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,8 +580,148 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -796,6 +951,104 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -804,7 +1057,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -842,7 +1095,21 @@
     <xf applyBorder="true" applyFill="true" borderId="51" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="53" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="55" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="57" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="59" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="63" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="67" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="71" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="85" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1331,8 +1598,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>66</v>
+      <c r="A2" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1346,7 +1613,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="49" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1364,8 +1631,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>69</v>
+      <c r="L2" s="47" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>59070322</t>
+  </si>
+  <si>
+    <t>05-19-2022</t>
+  </si>
+  <si>
+    <t>59070344</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="88">
+  <fills count="94">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +726,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="86">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -1049,6 +1085,27 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1057,7 +1114,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1109,7 +1166,10 @@
     <xf applyBorder="true" applyFill="true" borderId="79" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="81" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="83" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="85" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1598,8 +1658,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>70</v>
+      <c r="A2" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1613,7 +1673,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="51" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1631,8 +1691,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="47" t="s">
-        <v>74</v>
+      <c r="L2" s="52" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>59070344</t>
+  </si>
+  <si>
+    <t>05-26-2022</t>
+  </si>
+  <si>
+    <t>59071590</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="94">
+  <fills count="102">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,8 +762,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="92">
+  <borders count="100">
     <border>
       <left/>
       <right/>
@@ -1106,6 +1152,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1114,7 +1188,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1169,7 +1243,11 @@
     <xf applyBorder="true" applyFill="true" borderId="85" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="87" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="89" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="99" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1658,8 +1736,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>75</v>
+      <c r="A2" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1673,7 +1751,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="56" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1691,8 +1769,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="52" t="s">
-        <v>76</v>
+      <c r="L2" s="55" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -265,6 +265,21 @@
   </si>
   <si>
     <t>59071590</t>
+  </si>
+  <si>
+    <t>06-01-2022</t>
+  </si>
+  <si>
+    <t>59071919</t>
+  </si>
+  <si>
+    <t>59071926</t>
+  </si>
+  <si>
+    <t>59071939</t>
+  </si>
+  <si>
+    <t>59071955</t>
   </si>
 </sst>
 </file>
@@ -295,7 +310,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="102">
+  <fills count="128">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,8 +817,138 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="100">
+  <borders count="126">
     <border>
       <left/>
       <right/>
@@ -1180,6 +1325,97 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1188,7 +1424,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1247,7 +1483,20 @@
     <xf applyBorder="true" applyFill="true" borderId="93" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="95" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="97" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="99" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="125" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1736,8 +1985,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>77</v>
+      <c r="A2" s="66" t="s">
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1751,7 +2000,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="69" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1769,8 +2018,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="55" t="s">
-        <v>78</v>
+      <c r="L2" s="68" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>59071955</t>
+  </si>
+  <si>
+    <t>06-17-2022</t>
+  </si>
+  <si>
+    <t>59075574</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="128">
+  <fills count="134">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,8 +953,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="126">
+  <borders count="132">
     <border>
       <left/>
       <right/>
@@ -1416,6 +1452,27 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1424,7 +1481,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1496,7 +1553,10 @@
     <xf applyBorder="true" applyFill="true" borderId="119" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="121" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="123" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="125" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1985,8 +2045,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>79</v>
+      <c r="A2" s="70" t="s">
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2000,7 +2060,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="71" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2018,8 +2078,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="68" t="s">
-        <v>83</v>
+      <c r="L2" s="72" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>59075574</t>
+  </si>
+  <si>
+    <t>07-06-2022</t>
+  </si>
+  <si>
+    <t>59082131</t>
+  </si>
+  <si>
+    <t>59082134</t>
   </si>
 </sst>
 </file>
@@ -316,7 +325,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="134">
+  <fills count="146">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,8 +992,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="132">
+  <borders count="144">
     <border>
       <left/>
       <right/>
@@ -1473,6 +1542,48 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1481,7 +1592,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1556,7 +1667,13 @@
     <xf applyBorder="true" applyFill="true" borderId="125" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="127" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="129" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="143" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2045,8 +2162,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>84</v>
+      <c r="A2" s="76" t="s">
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2060,7 +2177,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="77" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2078,8 +2195,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="72" t="s">
-        <v>85</v>
+      <c r="L2" s="78" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>59082134</t>
+  </si>
+  <si>
+    <t>08-18-2022</t>
+  </si>
+  <si>
+    <t>59086118</t>
+  </si>
+  <si>
+    <t>59086147</t>
+  </si>
+  <si>
+    <t>59086148</t>
   </si>
 </sst>
 </file>
@@ -325,7 +337,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="146">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,8 +1064,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="144">
+  <borders count="164">
     <border>
       <left/>
       <right/>
@@ -1584,6 +1696,76 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1592,7 +1774,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1673,7 +1855,17 @@
     <xf applyBorder="true" applyFill="true" borderId="137" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="139" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="141" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="143" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="163" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2162,8 +2354,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>86</v>
+      <c r="A2" s="86" t="s">
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2177,7 +2369,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="87" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2195,8 +2387,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="78" t="s">
-        <v>88</v>
+      <c r="L2" s="88" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>59086148</t>
+  </si>
+  <si>
+    <t>08-28-2022</t>
+  </si>
+  <si>
+    <t>59086480</t>
+  </si>
+  <si>
+    <t>59086481</t>
   </si>
 </sst>
 </file>
@@ -337,7 +346,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="166">
+  <fills count="178">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,8 +1173,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="164">
+  <borders count="176">
     <border>
       <left/>
       <right/>
@@ -1766,6 +1835,48 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1774,7 +1885,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1865,7 +1976,13 @@
     <xf applyBorder="true" applyFill="true" borderId="157" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="159" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="161" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="163" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="175" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2354,8 +2471,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
-        <v>89</v>
+      <c r="A2" s="92" t="s">
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2369,7 +2486,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="93" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2387,8 +2504,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="88" t="s">
-        <v>92</v>
+      <c r="L2" s="94" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/stg/Overages/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -316,6 +316,48 @@
   </si>
   <si>
     <t>59086481</t>
+  </si>
+  <si>
+    <t>09-14-2022</t>
+  </si>
+  <si>
+    <t>59088085</t>
+  </si>
+  <si>
+    <t>09-24-2022</t>
+  </si>
+  <si>
+    <t>59090304</t>
+  </si>
+  <si>
+    <t>59090305</t>
+  </si>
+  <si>
+    <t>09-25-2022</t>
+  </si>
+  <si>
+    <t>59090308</t>
+  </si>
+  <si>
+    <t>59090309</t>
+  </si>
+  <si>
+    <t>59090310</t>
+  </si>
+  <si>
+    <t>59090311</t>
+  </si>
+  <si>
+    <t>59090312</t>
+  </si>
+  <si>
+    <t>09-26-2022</t>
+  </si>
+  <si>
+    <t>59090384</t>
+  </si>
+  <si>
+    <t>59090385</t>
   </si>
 </sst>
 </file>
@@ -346,7 +388,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="178">
+  <fills count="240">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1233,8 +1275,318 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="176">
+  <borders count="238">
     <border>
       <left/>
       <right/>
@@ -1877,6 +2229,223 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1885,7 +2454,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -1982,7 +2551,38 @@
     <xf applyBorder="true" applyFill="true" borderId="169" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="171" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="173" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="175" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="183" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="185" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="223" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="225" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="227" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="229" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="239" borderId="237" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2471,8 +3071,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>93</v>
+      <c r="A2" s="123" t="s">
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2486,7 +3086,7 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="124" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2504,8 +3104,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="94" t="s">
-        <v>95</v>
+      <c r="L2" s="125" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
